--- a/data/trans_dic/KIDM_C_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_3_R-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 8,1</t>
+          <t>0,0; 34,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,98; 25,78</t>
+          <t>0; 11,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,59; 17,56</t>
+          <t>0,0; 38,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,88</t>
+          <t>0; 36,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 11,19</t>
+          <t>0; 10,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,85; 19,11</t>
+          <t>0,0; 39,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 12,51</t>
+          <t>0,0; 43,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 14,53</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 8,01</t>
+          <t>0,0; 18,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,76; 20,35</t>
+          <t>0,0; 18,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,74; 13,63</t>
+          <t>3,85; 32,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,4</t>
+          <t>0; 23,25</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>2,68%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 8,39</t>
+          <t>1,46; 8,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,99</t>
+          <t>12,98; 25,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 13,16</t>
+          <t>7,59; 17,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,23</t>
+          <t>0,0; 2,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,45</t>
+          <t>3,31; 11,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,59; 24,26</t>
+          <t>7,85; 19,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 17,93</t>
+          <t>4,16; 12,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 10,62</t>
+          <t>2,45; 14,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 6,74</t>
+          <t>2,82; 8,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 17,08</t>
+          <t>11,76; 20,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 13,46</t>
+          <t>6,74; 13,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 7,9</t>
+          <t>0,94; 5,4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,07</t>
+          <t>0,79; 8,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>5,75; 17,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,55</t>
+          <t>5,2; 17,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 2,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>1,16; 10,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,28</t>
+          <t>12,86; 28,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,11</t>
+          <t>5,19; 17,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,0; 9,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,79</t>
+          <t>1,61; 7,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,37</t>
+          <t>10,91; 21,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 32,89</t>
+          <t>6,23; 14,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,35; 5,05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>3,72%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,21</t>
+          <t>1,46; 8,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 17,22</t>
+          <t>4,46; 14,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,2; 17,22</t>
+          <t>3,95; 13,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,84</t>
+          <t>0,0; 10,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,41</t>
+          <t>1,0; 9,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,86; 28,74</t>
+          <t>10,59; 24,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 17,79</t>
+          <t>7,05; 17,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,6</t>
+          <t>1,23; 10,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 7,62</t>
+          <t>1,8; 6,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,91; 21,01</t>
+          <t>8,19; 17,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,23; 14,98</t>
+          <t>6,15; 13,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 5,05</t>
+          <t>1,4; 7,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_C_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_3_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,07</t>
+          <t>0,0; 32,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,55</t>
+          <t>0,0; 38,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,28</t>
+          <t>0,0; 33,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,11</t>
+          <t>0,0; 47,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,79</t>
+          <t>0,0; 15,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,37</t>
+          <t>0,0; 17,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 32,89</t>
+          <t>4,0; 32,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 11,63</t>
+          <t>2,97; 12,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 16,04</t>
+          <t>4,37; 15,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 19,6</t>
+          <t>5,25; 19,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 14,36</t>
+          <t>1,32; 14,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 16,63</t>
+          <t>2,77; 16,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,21; 24,75</t>
+          <t>8,34; 24,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 11,28</t>
+          <t>1,33; 12,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,25</t>
+          <t>0,0; 11,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 11,61</t>
+          <t>4,03; 11,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 17,1</t>
+          <t>7,19; 17,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 12,99</t>
+          <t>4,06; 13,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,08</t>
+          <t>0,86; 9,67</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 8,1</t>
+          <t>1,47; 8,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,98; 25,78</t>
+          <t>13,09; 26,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 17,56</t>
+          <t>7,96; 17,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,88</t>
+          <t>0,0; 3,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 11,19</t>
+          <t>3,28; 11,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 19,11</t>
+          <t>7,85; 18,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 12,51</t>
+          <t>4,2; 12,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 14,53</t>
+          <t>2,51; 14,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 8,01</t>
+          <t>2,97; 7,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,76; 20,35</t>
+          <t>11,96; 20,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,74; 13,63</t>
+          <t>7,0; 13,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,4</t>
+          <t>0,88; 5,31</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,21</t>
+          <t>0,79; 8,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 17,22</t>
+          <t>5,42; 17,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,2; 17,22</t>
+          <t>5,32; 17,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,84</t>
+          <t>0,0; 3,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,41</t>
+          <t>1,15; 11,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,86; 28,74</t>
+          <t>12,58; 28,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 17,79</t>
+          <t>4,95; 17,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,6</t>
+          <t>0,0; 9,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 7,62</t>
+          <t>1,52; 7,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,91; 21,01</t>
+          <t>10,27; 20,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 14,98</t>
+          <t>6,12; 14,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 5,05</t>
+          <t>0,09; 5,03</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 8,39</t>
+          <t>1,46; 8,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,99</t>
+          <t>4,11; 15,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 13,16</t>
+          <t>3,83; 12,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,23</t>
+          <t>0,0; 10,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,45</t>
+          <t>1,0; 8,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,59; 24,26</t>
+          <t>9,75; 24,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,05; 17,93</t>
+          <t>7,13; 18,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 10,62</t>
+          <t>1,22; 10,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 6,74</t>
+          <t>1,81; 7,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,19; 17,08</t>
+          <t>8,23; 17,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 13,46</t>
+          <t>6,42; 13,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 7,9</t>
+          <t>1,24; 7,81</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,11</t>
+          <t>2,55; 6,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,02; 14,99</t>
+          <t>9,08; 14,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,55; 13,27</t>
+          <t>7,55; 12,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,01</t>
+          <t>0,82; 4,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,76</t>
+          <t>3,56; 8,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,01; 18,83</t>
+          <t>12,22; 19,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,9; 12,01</t>
+          <t>6,68; 11,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,33</t>
+          <t>2,07; 6,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,3</t>
+          <t>3,41; 6,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,31; 15,76</t>
+          <t>11,2; 15,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,83; 11,52</t>
+          <t>7,84; 11,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,32</t>
+          <t>1,79; 4,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_C_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_3_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,97</t>
+          <t>0,0; 28,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,26</t>
+          <t>0,0; 41,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,13</t>
+          <t>0,0; 41,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,3</t>
+          <t>0,0; 41,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,67</t>
+          <t>0,0; 17,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,81</t>
+          <t>0,0; 15,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 32,71</t>
+          <t>4,13; 29,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 12,64</t>
+          <t>2,94; 13,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 15,93</t>
+          <t>4,46; 17,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 19,63</t>
+          <t>5,2; 20,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 14,36</t>
+          <t>1,22; 15,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 16,76</t>
+          <t>2,78; 16,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,34; 24,3</t>
+          <t>8,09; 23,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 12,14</t>
+          <t>1,32; 11,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,03</t>
+          <t>0,0; 9,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 11,97</t>
+          <t>4,09; 12,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,19; 17,14</t>
+          <t>7,18; 17,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 13,68</t>
+          <t>4,43; 13,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,67</t>
+          <t>0,89; 9,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 8,12</t>
+          <t>1,46; 8,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,09; 26,13</t>
+          <t>13,3; 26,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,96; 17,41</t>
+          <t>7,48; 18,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,03</t>
+          <t>0,0; 3,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 11,22</t>
+          <t>3,29; 10,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 18,55</t>
+          <t>8,3; 19,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 12,48</t>
+          <t>4,16; 12,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 14,93</t>
+          <t>2,03; 13,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,91</t>
+          <t>2,99; 8,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,96; 20,03</t>
+          <t>11,76; 20,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,0; 13,46</t>
+          <t>7,05; 13,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,31</t>
+          <t>0,96; 5,37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,18</t>
+          <t>0,78; 7,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,42; 17,5</t>
+          <t>5,71; 18,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 17,68</t>
+          <t>5,06; 17,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,48</t>
+          <t>0,0; 3,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 11,52</t>
+          <t>1,16; 11,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,58; 28,8</t>
+          <t>12,09; 29,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 17,88</t>
+          <t>4,96; 18,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,66</t>
+          <t>0,0; 9,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,2</t>
+          <t>1,63; 6,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 20,19</t>
+          <t>10,59; 19,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 14,5</t>
+          <t>6,31; 14,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,03</t>
+          <t>0,35; 4,95</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 8,26</t>
+          <t>1,47; 8,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 15,16</t>
+          <t>4,77; 15,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,83; 12,96</t>
+          <t>3,68; 13,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,42</t>
+          <t>0,0; 12,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,82</t>
+          <t>0,92; 8,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 24,19</t>
+          <t>9,78; 23,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,13; 18,82</t>
+          <t>6,15; 18,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 10,29</t>
+          <t>1,22; 11,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,33</t>
+          <t>2,0; 6,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,23; 17,16</t>
+          <t>8,49; 17,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,42; 13,34</t>
+          <t>6,75; 13,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,81</t>
+          <t>1,35; 7,86</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,31</t>
+          <t>2,68; 6,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,08; 14,74</t>
+          <t>9,09; 14,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,55; 12,95</t>
+          <t>7,56; 13,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,0</t>
+          <t>0,83; 3,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,56; 8,08</t>
+          <t>3,54; 7,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,22; 19,03</t>
+          <t>12,39; 19,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,72</t>
+          <t>6,74; 12,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,87</t>
+          <t>2,03; 6,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,19</t>
+          <t>3,61; 6,3</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,2; 15,67</t>
+          <t>11,27; 15,82</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,84; 11,64</t>
+          <t>7,7; 11,63</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,48</t>
+          <t>1,71; 4,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_C_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_3_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,67%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,81</t>
+          <t>3,07; 12,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>8,1; 22,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,5</t>
+          <t>2,94; 13,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 9,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>2,82; 11,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,35</t>
+          <t>3,52; 13,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,47</t>
+          <t>5,63; 19,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,98; 14,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,66</t>
+          <t>3,29; 10,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,21</t>
+          <t>6,4; 15,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 29,97</t>
+          <t>5,61; 14,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,92; 8,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 13,7</t>
+          <t>3,31; 11,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 17,12</t>
+          <t>7,85; 19,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 20,04</t>
+          <t>4,16; 12,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 15,07</t>
+          <t>2,54; 15,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 16,74</t>
+          <t>1,46; 8,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,09; 23,97</t>
+          <t>12,98; 25,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 11,81</t>
+          <t>7,59; 17,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,98</t>
+          <t>0,0; 3,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 12,02</t>
+          <t>2,82; 8,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 17,42</t>
+          <t>11,76; 20,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 13,12</t>
+          <t>6,74; 13,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,35</t>
+          <t>0,95; 5,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 8,08</t>
+          <t>1,16; 10,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,3; 26,0</t>
+          <t>12,86; 28,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,48; 18,09</t>
+          <t>5,19; 17,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,07</t>
+          <t>0,0; 7,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 10,89</t>
+          <t>0,79; 8,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,3; 19,22</t>
+          <t>5,75; 17,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 12,65</t>
+          <t>5,2; 17,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 13,43</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,09</t>
+          <t>1,61; 7,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,76; 20,27</t>
+          <t>10,91; 21,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 13,27</t>
+          <t>6,23; 14,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,37</t>
+          <t>0,26; 4,57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>3,72%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,38</t>
+          <t>1,0; 9,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 18,11</t>
+          <t>10,59; 24,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 17,46</t>
+          <t>7,05; 17,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>1,27; 11,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 11,15</t>
+          <t>1,46; 8,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,09; 29,0</t>
+          <t>4,46; 14,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 18,79</t>
+          <t>3,95; 13,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,29</t>
+          <t>0,0; 10,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,94</t>
+          <t>1,8; 6,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 19,99</t>
+          <t>8,19; 17,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 14,76</t>
+          <t>6,15; 13,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,95</t>
+          <t>1,39; 7,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 8,21</t>
+          <t>3,58; 7,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,77; 15,31</t>
+          <t>12,01; 18,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 13,27</t>
+          <t>6,9; 12,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,64</t>
+          <t>1,7; 6,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 8,66</t>
+          <t>2,46; 6,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,78; 23,56</t>
+          <t>9,02; 14,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 18,19</t>
+          <t>7,55; 13,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 11,35</t>
+          <t>0,84; 4,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,84</t>
+          <t>3,57; 6,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,49; 17,01</t>
+          <t>11,31; 15,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,75; 13,9</t>
+          <t>7,83; 11,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 7,86</t>
+          <t>1,63; 4,17</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,11%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>11,69%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,05%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,88%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>15,21%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>9,12%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4,02%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>4,72%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>13,42%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>9,59%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>2,81%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,68; 6,47</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9,09; 14,79</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,56; 13,1</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 3,68</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>3,54; 7,7</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>12,39; 19,27</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,74; 12,25</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 6,98</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>3,61; 6,3</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>11,27; 15,82</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>7,7; 11,63</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 4,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
